--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Turkish_200_Word_Talk_Time1_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Turkish_200_Word_Talk_Time1_Test.xlsx
@@ -1453,7 +1453,7 @@
     <t>J3lK1h2j7Lo</t>
   </si>
   <si>
-    <t>dFdcNQFG81I</t>
+    <t>bj1JRuyYeco</t>
   </si>
   <si>
     <t>Isab2NO9jlk</t>
@@ -2653,7 +2653,7 @@
     <t>https://www.youtube.com/watch?v=J3lK1h2j7Lo&amp;t=2551s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dFdcNQFG81I&amp;t=0s</t>
+    <t>https://www.youtube.com/watch?v=bj1JRuyYeco&amp;t=0s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Isab2NO9jlk&amp;t=1773s</t>
